--- a/דוח_רכישות.xlsx
+++ b/דוח_רכישות.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="רכישות" sheetId="1" r:id="rId1"/>
+    <sheet name="דוח" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="153">
   <si>
     <t>Customer ID</t>
   </si>
@@ -79,6 +79,15 @@
     <t>marah</t>
   </si>
   <si>
+    <t>afsw</t>
+  </si>
+  <si>
+    <t>tafa</t>
+  </si>
+  <si>
+    <t>ahmad mostafa shalata</t>
+  </si>
+  <si>
     <t>52453</t>
   </si>
   <si>
@@ -109,6 +118,15 @@
     <t>0648458448</t>
   </si>
   <si>
+    <t>54848648</t>
+  </si>
+  <si>
+    <t>783783</t>
+  </si>
+  <si>
+    <t>0533071442</t>
+  </si>
+  <si>
     <t>gsrwe@gmail.com</t>
   </si>
   <si>
@@ -139,6 +157,15 @@
     <t>marah43y@gmail.com</t>
   </si>
   <si>
+    <t>sdb@gmail.com</t>
+  </si>
+  <si>
+    <t>fgsmrfmg</t>
+  </si>
+  <si>
+    <t>shalataahmad10@gmail.com</t>
+  </si>
+  <si>
     <t>jeans</t>
   </si>
   <si>
@@ -184,6 +211,9 @@
     <t>shorts</t>
   </si>
   <si>
+    <t>wbre</t>
+  </si>
+  <si>
     <t>345.99</t>
   </si>
   <si>
@@ -367,6 +397,30 @@
     <t>499.90</t>
   </si>
   <si>
+    <t>131.89</t>
+  </si>
+  <si>
+    <t>2004.00</t>
+  </si>
+  <si>
+    <t>224.95</t>
+  </si>
+  <si>
+    <t>10560.00</t>
+  </si>
+  <si>
+    <t>110.90</t>
+  </si>
+  <si>
+    <t>365.98</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -385,6 +439,9 @@
     <t>Blue</t>
   </si>
   <si>
+    <t>gvew</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -404,6 +461,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>1</t>
@@ -493,24 +553,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>כמות רכישות לפי תאריך</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -520,326 +562,352 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>כמות רכישות לפי תאריך</c:v>
+            <c:v>כמות רכישות</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>רכישות!H$2:H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+            <c:strRef>
+              <c:f>דוח!E2:E113</c:f>
+              <c:strCache>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>45732.99232638889</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45732.99232638889</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45732.99804398148</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45732.99804398148</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45732.99815972222</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45733.04140046296</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45733.04140046296</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45733.97640046296</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45733.97640046296</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45734.84157407407</c:v>
+                  <c:v>weg</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45734.84157407407</c:v>
+                  <c:v>weg</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45734.85399305556</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45734.85399305556</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45734.85545138889</c:v>
+                  <c:v>hher</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45734.85545138889</c:v>
+                  <c:v>hher</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45734.8937962963</c:v>
+                  <c:v>sdsd</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45734.8937962963</c:v>
+                  <c:v>sdsd</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45734.89439814815</c:v>
+                  <c:v>sdsd</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45734.89518518518</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45734.89518518518</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45734.98462962963</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45734.98462962963</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45734.99699074074</c:v>
+                  <c:v>vwnvo</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45734.99699074074</c:v>
+                  <c:v>vwnvo</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45735.04494212963</c:v>
+                  <c:v>weg</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45735.09070601852</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45735.09070601852</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45736.86861111111</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45736.86861111111</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45738.89883101852</c:v>
+                  <c:v>fsaf</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45738.89883101852</c:v>
+                  <c:v>fsaf</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45738.96376157407</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45738.96625</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45738.9666087963</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45738.9666087963</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45738.96873842592</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45738.98614583333</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45739.00556712963</c:v>
+                  <c:v>gvs</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45739.00636574074</c:v>
+                  <c:v>fsaf</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45739.05008101852</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45740.93045138889</c:v>
+                  <c:v>vwnvo</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45741.00537037037</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45745.95164351852</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45745.96300925926</c:v>
+                  <c:v>shirt</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45749.53331018519</c:v>
+                  <c:v>Scarlet</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45750.49805555555</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45750.56224537037</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45750.56561342593</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45750.56840277778</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45750.62231481481</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45750.63039351852</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45750.6340162037</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45750.63564814815</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45750.63657407407</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45750.63920138889</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45750.64101851852</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45751.6366087963</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45751.80532407408</c:v>
+                  <c:v>shirts</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45752.46918981482</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45752.58269675926</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>45754.44517361111</c:v>
+                  <c:v>shirts</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>45754.44576388889</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45754.44641203704</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>45754.46057870371</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45754.46267361111</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45754.57525462963</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45756.46775462963</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45756.46775462963</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45756.46775462963</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45756.47150462963</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45756.47150462963</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45756.47150462963</c:v>
+                  <c:v>shirt</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>45756.48697916666</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>45756.48697916666</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45756.48697916666</c:v>
+                  <c:v>shirt</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45756.55277777778</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45756.55277777778</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45756.58388888889</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>45756.58388888889</c:v>
+                  <c:v>gvs</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45756.58388888889</c:v>
+                  <c:v>shorts</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>45756.58388888889</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>45756.79631944445</c:v>
+                  <c:v>scarlet</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>45756.79795138889</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45756.79795138889</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45756.79795138889</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>45759.50618055555</c:v>
+                  <c:v>gvs</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45759.50618055555</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45759.50618055555</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>45759.79190972223</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>45759.79190972223</c:v>
+                  <c:v>sdsd</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45759.79190972223</c:v>
+                  <c:v>gvs</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>45759.79287037037</c:v>
+                  <c:v>ewrr</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>45759.79287037037</c:v>
+                  <c:v>shorts</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>45760.72084490741</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>45760.72084490741</c:v>
+                  <c:v>herhe</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>45760.82144675926</c:v>
+                  <c:v>sdv</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>45760.82144675926</c:v>
+                  <c:v>shirt</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>45762.79143518519</c:v>
+                  <c:v>fox racing</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>45763.48678240741</c:v>
+                  <c:v>shorts</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>45767.38271990741</c:v>
+                  <c:v>jeans</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>45767.38271990741</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fox racing</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>scarlet</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>wbre</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>jeans</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>sdsd</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Scarlet</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Scarlet</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>fox racing</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>sdv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>רכישות!F$2:F$102</c:f>
+              <c:f>דוח!F2:F113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1142,6 +1210,39 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,25 +1257,6 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>תאריך רכישה</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -1189,24 +1271,6 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>כמות</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
@@ -1232,13 +1296,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1548,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1609,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2">
         <v>45732.99232638889</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1626,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1638,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2">
         <v>45732.99232638889</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1655,10 +1719,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1667,13 +1731,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2">
         <v>45732.99804398148</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1684,10 +1748,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1696,13 +1760,13 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2">
         <v>45732.99804398148</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1713,25 +1777,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>45732.99815972222</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1742,25 +1806,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2">
         <v>45733.04140046296</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1771,25 +1835,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2">
         <v>45733.04140046296</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1800,25 +1864,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
         <v>45733.97640046296</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1829,25 +1893,25 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
         <v>45733.97640046296</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1858,25 +1922,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
         <v>45734.84157407407</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1887,25 +1951,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2">
         <v>45734.84157407407</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1916,10 +1980,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1928,13 +1992,13 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2">
         <v>45734.85399305556</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1945,10 +2009,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1957,13 +2021,13 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2">
         <v>45734.85399305556</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1974,25 +2038,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2">
         <v>45734.85545138889</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2003,25 +2067,25 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
         <v>45734.85545138889</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2032,25 +2096,25 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2">
         <v>45734.8937962963</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2061,25 +2125,25 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2">
         <v>45734.8937962963</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2090,25 +2154,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2">
         <v>45734.89439814815</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2119,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -2131,13 +2195,13 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2">
         <v>45734.89518518518</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2148,10 +2212,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -2160,13 +2224,13 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2">
         <v>45734.89518518518</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2177,25 +2241,25 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H22" s="2">
         <v>45734.98462962963</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2206,25 +2270,25 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2">
         <v>45734.98462962963</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2235,25 +2299,25 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2">
         <v>45734.99699074074</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2264,25 +2328,25 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2">
         <v>45734.99699074074</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2293,25 +2357,25 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2">
         <v>45735.04494212963</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2322,10 +2386,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -2334,13 +2398,13 @@
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H27" s="2">
         <v>45735.09070601852</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2351,10 +2415,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -2363,13 +2427,13 @@
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
         <v>45735.09070601852</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2380,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -2392,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2">
         <v>45736.86861111111</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2409,10 +2473,10 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -2421,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H30" s="2">
         <v>45736.86861111111</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2438,25 +2502,25 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2">
         <v>45738.89883101852</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2467,25 +2531,25 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2">
         <v>45738.89883101852</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2496,10 +2560,10 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -2508,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H33" s="2">
         <v>45738.96376157407</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2525,10 +2589,10 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -2537,13 +2601,13 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2">
         <v>45738.96625</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2554,10 +2618,10 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2566,13 +2630,13 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2">
         <v>45738.9666087963</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2583,10 +2647,10 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2595,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2">
         <v>45738.9666087963</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2612,25 +2676,25 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H37" s="2">
         <v>45738.96873842592</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2641,10 +2705,10 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2653,13 +2717,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H38" s="2">
         <v>45738.98614583333</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2670,25 +2734,25 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F39">
         <v>120</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H39" s="2">
         <v>45739.00556712963</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2699,25 +2763,25 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H40" s="2">
         <v>45739.00636574074</v>
       </c>
       <c r="K40" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2728,25 +2792,25 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H41" s="2">
         <v>45739.05008101852</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2757,25 +2821,25 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H42" s="2">
         <v>45740.93045138889</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2786,25 +2850,25 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H43" s="2">
         <v>45741.00537037037</v>
       </c>
       <c r="K43" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2815,25 +2879,25 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H44" s="2">
         <v>45745.95164351852</v>
       </c>
       <c r="K44" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2844,25 +2908,25 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" s="2">
         <v>45745.96300925926</v>
       </c>
       <c r="K45" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2873,25 +2937,25 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" s="2">
         <v>45749.53331018519</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2902,31 +2966,31 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H47" s="2">
         <v>45750.49805555555</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2937,31 +3001,31 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H48" s="2">
         <v>45750.56224537037</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2972,31 +3036,31 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H49" s="2">
         <v>45750.56561342593</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3007,31 +3071,31 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H50" s="2">
         <v>45750.56840277778</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3042,31 +3106,31 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H51" s="2">
         <v>45750.62231481481</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3077,31 +3141,31 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H52" s="2">
         <v>45750.63039351852</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3112,31 +3176,31 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H53" s="2">
         <v>45750.6340162037</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K53" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3147,31 +3211,31 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" s="2">
         <v>45750.63564814815</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3182,31 +3246,31 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H55" s="2">
         <v>45750.63657407407</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3217,31 +3281,31 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H56" s="2">
         <v>45750.63920138889</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3252,31 +3316,31 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H57" s="2">
         <v>45750.64101851852</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3287,31 +3351,31 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H58" s="2">
         <v>45751.6366087963</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J58" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3322,25 +3386,25 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H59" s="2">
         <v>45751.80532407408</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3351,31 +3415,31 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H60" s="2">
         <v>45752.46918981482</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K60" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3386,31 +3450,31 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H61" s="2">
         <v>45752.58269675926</v>
       </c>
       <c r="I61" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K61" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3421,31 +3485,31 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H62" s="2">
         <v>45754.44517361111</v>
       </c>
       <c r="I62" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J62" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3456,31 +3520,31 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H63" s="2">
         <v>45754.44576388889</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J63" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3491,31 +3555,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F64">
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H64" s="2">
         <v>45754.44641203704</v>
       </c>
       <c r="I64" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3526,31 +3590,31 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H65" s="2">
         <v>45754.46057870371</v>
       </c>
       <c r="I65" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3561,31 +3625,31 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H66" s="2">
         <v>45754.46267361111</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J66" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3596,31 +3660,31 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H67" s="2">
         <v>45754.57525462963</v>
       </c>
       <c r="I67" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J67" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K67" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3631,31 +3695,31 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H68" s="2">
         <v>45756.46775462963</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J68" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3666,31 +3730,31 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H69" s="2">
         <v>45756.46775462963</v>
       </c>
       <c r="I69" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J69" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K69" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3701,31 +3765,31 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H70" s="2">
         <v>45756.46775462963</v>
       </c>
       <c r="I70" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J70" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K70" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3736,31 +3800,31 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H71" s="2">
         <v>45756.47150462963</v>
       </c>
       <c r="I71" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J71" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3771,31 +3835,31 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H72" s="2">
         <v>45756.47150462963</v>
       </c>
       <c r="I72" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J72" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3806,31 +3870,31 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H73" s="2">
         <v>45756.47150462963</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3841,31 +3905,31 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F74">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H74" s="2">
         <v>45756.48697916666</v>
       </c>
       <c r="I74" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K74" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3876,31 +3940,31 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H75" s="2">
         <v>45756.48697916666</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J75" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3911,31 +3975,31 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F76">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H76" s="2">
         <v>45756.48697916666</v>
       </c>
       <c r="I76" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J76" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3946,31 +4010,31 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H77" s="2">
         <v>45756.55277777778</v>
       </c>
       <c r="I77" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K77" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3981,31 +4045,31 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H78" s="2">
         <v>45756.55277777778</v>
       </c>
       <c r="I78" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J78" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K78" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4016,10 +4080,10 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -4028,19 +4092,19 @@
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H79" s="2">
         <v>45756.58388888889</v>
       </c>
       <c r="I79" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J79" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K79" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4051,31 +4115,31 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F80">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H80" s="2">
         <v>45756.58388888889</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J80" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K80" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4086,31 +4150,31 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H81" s="2">
         <v>45756.58388888889</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J81" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K81" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4121,31 +4185,31 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H82" s="2">
         <v>45756.58388888889</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J82" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K82" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4156,31 +4220,31 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H83" s="2">
         <v>45756.79631944445</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J83" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4191,31 +4255,31 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H84" s="2">
         <v>45756.79795138889</v>
       </c>
       <c r="I84" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J84" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K84" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4226,31 +4290,31 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H85" s="2">
         <v>45756.79795138889</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J85" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4261,31 +4325,31 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H86" s="2">
         <v>45756.79795138889</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J86" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4296,31 +4360,31 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F87">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H87" s="2">
         <v>45759.50618055555</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J87" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K87" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4331,31 +4395,31 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F88">
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H88" s="2">
         <v>45759.50618055555</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J88" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K88" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4366,10 +4430,10 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -4378,19 +4442,19 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H89" s="2">
         <v>45759.50618055555</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J89" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4401,31 +4465,31 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H90" s="2">
         <v>45759.79190972223</v>
       </c>
       <c r="I90" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J90" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4436,31 +4500,31 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H91" s="2">
         <v>45759.79190972223</v>
       </c>
       <c r="I91" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J91" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K91" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4471,31 +4535,31 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F92">
         <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H92" s="2">
         <v>45759.79190972223</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J92" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4506,31 +4570,31 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F93">
         <v>65</v>
       </c>
       <c r="G93" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H93" s="2">
         <v>45759.79287037037</v>
       </c>
       <c r="I93" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J93" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K93" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4541,31 +4605,31 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F94">
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H94" s="2">
         <v>45759.79287037037</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J94" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K94" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4576,10 +4640,10 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
@@ -4588,19 +4652,19 @@
         <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H95" s="2">
         <v>45760.72084490741</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J95" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4611,31 +4675,31 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H96" s="2">
         <v>45760.72084490741</v>
       </c>
       <c r="I96" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J96" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K96" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4646,10 +4710,10 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -4658,19 +4722,19 @@
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H97" s="2">
         <v>45760.82144675926</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J97" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K97" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4681,31 +4745,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F98">
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H98" s="2">
         <v>45760.82144675926</v>
       </c>
       <c r="I98" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J98" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K98" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4716,31 +4780,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F99">
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H99" s="2">
         <v>45762.79143518519</v>
       </c>
       <c r="I99" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J99" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K99" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4751,31 +4815,31 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F100">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H100" s="2">
         <v>45763.48678240741</v>
       </c>
       <c r="I100" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J100" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K100" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4786,31 +4850,31 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H101" s="2">
         <v>45767.38271990741</v>
       </c>
       <c r="I101" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J101" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="K101" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4821,31 +4885,398 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H102" s="2">
         <v>45767.38271990741</v>
       </c>
       <c r="I102" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J102" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103" s="2">
+        <v>45769.84673611111</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+      <c r="J103" t="s">
+        <v>143</v>
+      </c>
+      <c r="K103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>128</v>
+      </c>
+      <c r="H104" s="2">
+        <v>45736</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+      <c r="K104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" s="2">
+        <v>45776.47858796296</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+      <c r="K105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>129</v>
+      </c>
+      <c r="H106" s="2">
+        <v>45776.47858796296</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+      <c r="K106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107">
+        <v>500</v>
+      </c>
+      <c r="G107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" s="2">
+        <v>45787.4104050926</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" s="2">
+        <v>45792.51121527778</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+      <c r="K108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="2">
+        <v>45792.52638888889</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+      <c r="K109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
         <v>131</v>
+      </c>
+      <c r="H110" s="2">
+        <v>45799.50077546296</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+      <c r="K110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" s="2">
+        <v>45799.50298611111</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+      <c r="J111" t="s">
+        <v>147</v>
+      </c>
+      <c r="K111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>133</v>
+      </c>
+      <c r="H112" s="2">
+        <v>45802.82976851852</v>
+      </c>
+      <c r="K112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" s="2">
+        <v>45804.83508101852</v>
+      </c>
+      <c r="K113" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
